--- a/doc/基本設計/URL一覧_2020_07_16.xlsx
+++ b/doc/基本設計/URL一覧_2020_07_16.xlsx
@@ -1,21 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\20.6.5\20.02.11開発\document-sample-master\02.詳細設計\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAEA9A2-FF5A-49DE-943C-18E336A2720D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="サンプル" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="清書" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -121,19 +112,46 @@
     <t>削除</t>
   </si>
   <si>
-    <t>/member/deleting_confirmation.php</t>
+    <t>/member/deleting_fixed.php</t>
   </si>
   <si>
-    <t>削除確認</t>
+    <t>削除完了</t>
+  </si>
+  <si>
+    <t>/member/setting/set.php</t>
   </si>
   <si>
     <t>設定</t>
   </si>
   <si>
+    <t>/member/setting/signal/signal.php</t>
+  </si>
+  <si>
     <t>信号項目</t>
   </si>
   <si>
+    <t>/member/setting/signal/existing_item_change.php</t>
+  </si>
+  <si>
+    <t>既存項目の変更</t>
+  </si>
+  <si>
+    <t>/member/setting/signal/change_item.php</t>
+  </si>
+  <si>
+    <t>既存項目の変更完了</t>
+  </si>
+  <si>
+    <t>/member/setting/signal/new_item_addition.php</t>
+  </si>
+  <si>
     <t>新規項目追加</t>
+  </si>
+  <si>
+    <t>/member/setting/signal/new_completed.php</t>
+  </si>
+  <si>
+    <t>新規項目追加完了</t>
   </si>
   <si>
     <t>/member/setting/activity.php</t>
@@ -210,96 +228,37 @@
   <si>
     <t>新規会員登録処理</t>
   </si>
-  <si>
-    <t>/member/setting/signal/existing_item_change.php</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>/member/setting/signal/new_item_addition.php</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>既存項目の変更</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>/member/setting/signal/signal.php</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>/member/setting/set.php</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>/member/setting/signal/change_item.php</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>既存項目の変更完了</t>
-    <rPh sb="7" eb="9">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>新規項目追加完了</t>
-    <rPh sb="6" eb="8">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>/member/setting/signal/new_completed.php</t>
-    <phoneticPr fontId="5"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="6">
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font/>
     <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -307,7 +266,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -322,14 +281,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="6">
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -343,7 +296,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -355,8 +307,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -365,9 +315,12 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -376,81 +329,71 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="14">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -640,31 +583,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X1013"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" customWidth="1"/>
-    <col min="2" max="2" width="36.90625" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" customWidth="1"/>
-    <col min="4" max="4" width="41.6328125" customWidth="1"/>
-    <col min="5" max="6" width="9" customWidth="1"/>
-    <col min="7" max="24" width="8.453125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="11.56"/>
+    <col customWidth="1" min="2" max="2" width="28.67"/>
+    <col customWidth="1" min="3" max="3" width="18.78"/>
+    <col customWidth="1" min="4" max="4" width="32.33"/>
+    <col customWidth="1" min="5" max="6" width="7.0"/>
+    <col customWidth="1" min="7" max="24" width="6.56"/>
+    <col customWidth="1" min="25" max="26" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="19.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -698,7 +642,7 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -732,8 +676,8 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -766,12 +710,12 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="5" t="s">
+    <row r="4" ht="19.5" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="3"/>
@@ -796,12 +740,12 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+    <row r="5" ht="19.5" customHeight="1">
+      <c r="A5" s="6"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="3"/>
@@ -826,12 +770,12 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="5" t="s">
+    <row r="6" ht="19.5" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="3"/>
@@ -856,8 +800,8 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+    <row r="7" ht="19.5" customHeight="1">
+      <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
@@ -886,15 +830,15 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="5" t="s">
+    <row r="8" ht="19.5" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="2"/>
@@ -918,8 +862,8 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+    <row r="9" ht="19.5" customHeight="1">
+      <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
@@ -948,12 +892,12 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="7" t="s">
+    <row r="10" ht="19.5" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="3"/>
@@ -978,12 +922,12 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="7" t="s">
+    <row r="11" ht="19.5" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="3"/>
@@ -1008,12 +952,12 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="7" t="s">
+    <row r="12" ht="19.5" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="3"/>
@@ -1038,8 +982,8 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+    <row r="13" ht="19.5" customHeight="1">
+      <c r="A13" s="6"/>
       <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
@@ -1068,12 +1012,12 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="8" t="s">
+    <row r="14" ht="19.5" customHeight="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="3"/>
@@ -1098,13 +1042,13 @@
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="13" t="s">
-        <v>67</v>
+    <row r="15" ht="19.5" customHeight="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="4" t="s">
+        <v>35</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>35</v>
+      <c r="C15" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="2"/>
@@ -1128,13 +1072,13 @@
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="13" t="s">
-        <v>66</v>
+    <row r="16" ht="19.5" customHeight="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="4" t="s">
+        <v>37</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>36</v>
+      <c r="C16" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
@@ -1158,13 +1102,13 @@
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="13" t="s">
-        <v>63</v>
+    <row r="17" ht="19.5" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="4" t="s">
+        <v>39</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>65</v>
+      <c r="C17" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="2"/>
@@ -1188,13 +1132,13 @@
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="13" t="s">
-        <v>68</v>
+    <row r="18" ht="19.5" customHeight="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="4" t="s">
+        <v>41</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>69</v>
+      <c r="C18" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="2"/>
@@ -1218,13 +1162,13 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="13" t="s">
-        <v>64</v>
+    <row r="19" ht="19.5" customHeight="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="4" t="s">
+        <v>43</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>37</v>
+      <c r="C19" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="2"/>
@@ -1248,13 +1192,13 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="13" t="s">
-        <v>71</v>
+    <row r="20" ht="19.5" customHeight="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="4" t="s">
+        <v>45</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>70</v>
+      <c r="C20" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="2"/>
@@ -1278,13 +1222,13 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+    <row r="21" ht="19.5" customHeight="1">
+      <c r="A21" s="6"/>
       <c r="B21" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="2"/>
@@ -1308,13 +1252,13 @@
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+    <row r="22" ht="19.5" customHeight="1">
+      <c r="A22" s="6"/>
       <c r="B22" s="4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>41</v>
+      <c r="C22" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="2"/>
@@ -1338,13 +1282,13 @@
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="5" t="s">
-        <v>42</v>
+    <row r="23" ht="19.5" customHeight="1">
+      <c r="A23" s="6"/>
+      <c r="B23" s="4" t="s">
+        <v>51</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>43</v>
+      <c r="C23" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="2"/>
@@ -1368,13 +1312,13 @@
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
+    <row r="24" ht="19.5" customHeight="1">
+      <c r="A24" s="6"/>
       <c r="B24" s="4" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="2"/>
@@ -1398,13 +1342,13 @@
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
+    <row r="25" ht="19.5" customHeight="1">
+      <c r="A25" s="6"/>
       <c r="B25" s="4" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="2"/>
@@ -1428,13 +1372,13 @@
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
+    <row r="26" ht="19.5" customHeight="1">
+      <c r="A26" s="6"/>
       <c r="B26" s="4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="2"/>
@@ -1458,13 +1402,13 @@
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
     </row>
-    <row r="27" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
+    <row r="27" ht="19.5" customHeight="1">
+      <c r="A27" s="6"/>
       <c r="B27" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="2"/>
@@ -1488,16 +1432,16 @@
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
     </row>
-    <row r="28" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
+    <row r="28" ht="19.5" customHeight="1">
+      <c r="A28" s="6"/>
       <c r="B28" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1520,13 +1464,13 @@
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
     </row>
-    <row r="29" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
+    <row r="29" ht="19.5" customHeight="1">
+      <c r="A29" s="6"/>
       <c r="B29" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="2"/>
@@ -1550,13 +1494,13 @@
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
     </row>
-    <row r="30" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
+    <row r="30" ht="19.5" customHeight="1">
+      <c r="A30" s="6"/>
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="2"/>
@@ -1580,13 +1524,13 @@
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
     </row>
-    <row r="31" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
+    <row r="31" ht="19.5" customHeight="1">
+      <c r="A31" s="6"/>
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="2"/>
@@ -1610,13 +1554,13 @@
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
     </row>
-    <row r="32" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
+    <row r="32" ht="19.5" customHeight="1">
+      <c r="A32" s="6"/>
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="2"/>
@@ -1640,7 +1584,7 @@
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
     </row>
-    <row r="33" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" ht="19.5" customHeight="1">
       <c r="A33" s="12"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1666,8 +1610,8 @@
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
     </row>
-    <row r="34" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
+    <row r="34" ht="19.5" customHeight="1">
+      <c r="A34" s="13"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1692,7 +1636,7 @@
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
     </row>
-    <row r="35" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" ht="19.5" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1718,7 +1662,7 @@
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
     </row>
-    <row r="36" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" ht="19.5" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1744,7 +1688,7 @@
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
     </row>
-    <row r="37" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" ht="19.5" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1770,7 +1714,7 @@
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
     </row>
-    <row r="38" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" ht="19.5" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1796,7 +1740,7 @@
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
     </row>
-    <row r="39" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" ht="19.5" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1822,7 +1766,7 @@
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
     </row>
-    <row r="40" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" ht="19.5" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1848,7 +1792,7 @@
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
     </row>
-    <row r="41" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" ht="19.5" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1874,7 +1818,7 @@
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
     </row>
-    <row r="42" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" ht="19.5" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1900,7 +1844,7 @@
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
     </row>
-    <row r="43" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" ht="19.5" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1926,7 +1870,7 @@
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
     </row>
-    <row r="44" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" ht="19.5" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1952,7 +1896,7 @@
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
     </row>
-    <row r="45" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" ht="19.5" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1978,7 +1922,7 @@
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
     </row>
-    <row r="46" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" ht="19.5" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2004,7 +1948,7 @@
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
     </row>
-    <row r="47" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" ht="19.5" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2030,7 +1974,7 @@
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
     </row>
-    <row r="48" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" ht="19.5" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2056,7 +2000,7 @@
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
     </row>
-    <row r="49" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" ht="19.5" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2082,7 +2026,7 @@
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
     </row>
-    <row r="50" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" ht="19.5" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2108,7 +2052,7 @@
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
     </row>
-    <row r="51" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" ht="19.5" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2134,7 +2078,7 @@
       <c r="W51" s="2"/>
       <c r="X51" s="2"/>
     </row>
-    <row r="52" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" ht="19.5" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2160,7 +2104,7 @@
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
     </row>
-    <row r="53" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" ht="19.5" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2186,7 +2130,7 @@
       <c r="W53" s="2"/>
       <c r="X53" s="2"/>
     </row>
-    <row r="54" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" ht="19.5" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2212,7 +2156,7 @@
       <c r="W54" s="2"/>
       <c r="X54" s="2"/>
     </row>
-    <row r="55" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" ht="19.5" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2238,7 +2182,7 @@
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
     </row>
-    <row r="56" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" ht="19.5" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2264,7 +2208,7 @@
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
     </row>
-    <row r="57" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" ht="19.5" customHeight="1">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2290,7 +2234,7 @@
       <c r="W57" s="2"/>
       <c r="X57" s="2"/>
     </row>
-    <row r="58" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" ht="19.5" customHeight="1">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2316,7 +2260,7 @@
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
     </row>
-    <row r="59" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" ht="19.5" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2342,7 +2286,7 @@
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
     </row>
-    <row r="60" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" ht="19.5" customHeight="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2368,7 +2312,7 @@
       <c r="W60" s="2"/>
       <c r="X60" s="2"/>
     </row>
-    <row r="61" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" ht="19.5" customHeight="1">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2394,7 +2338,7 @@
       <c r="W61" s="2"/>
       <c r="X61" s="2"/>
     </row>
-    <row r="62" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" ht="19.5" customHeight="1">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2420,7 +2364,7 @@
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
     </row>
-    <row r="63" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" ht="19.5" customHeight="1">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2446,7 +2390,7 @@
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
     </row>
-    <row r="64" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" ht="19.5" customHeight="1">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2472,7 +2416,7 @@
       <c r="W64" s="2"/>
       <c r="X64" s="2"/>
     </row>
-    <row r="65" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" ht="19.5" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2498,7 +2442,7 @@
       <c r="W65" s="2"/>
       <c r="X65" s="2"/>
     </row>
-    <row r="66" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" ht="19.5" customHeight="1">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2524,7 +2468,7 @@
       <c r="W66" s="2"/>
       <c r="X66" s="2"/>
     </row>
-    <row r="67" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" ht="19.5" customHeight="1">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2550,7 +2494,7 @@
       <c r="W67" s="2"/>
       <c r="X67" s="2"/>
     </row>
-    <row r="68" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" ht="19.5" customHeight="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2576,7 +2520,7 @@
       <c r="W68" s="2"/>
       <c r="X68" s="2"/>
     </row>
-    <row r="69" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" ht="19.5" customHeight="1">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2602,7 +2546,7 @@
       <c r="W69" s="2"/>
       <c r="X69" s="2"/>
     </row>
-    <row r="70" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" ht="19.5" customHeight="1">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2628,7 +2572,7 @@
       <c r="W70" s="2"/>
       <c r="X70" s="2"/>
     </row>
-    <row r="71" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" ht="19.5" customHeight="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2654,7 +2598,7 @@
       <c r="W71" s="2"/>
       <c r="X71" s="2"/>
     </row>
-    <row r="72" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" ht="19.5" customHeight="1">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2680,7 +2624,7 @@
       <c r="W72" s="2"/>
       <c r="X72" s="2"/>
     </row>
-    <row r="73" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" ht="19.5" customHeight="1">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2706,7 +2650,7 @@
       <c r="W73" s="2"/>
       <c r="X73" s="2"/>
     </row>
-    <row r="74" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" ht="19.5" customHeight="1">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2732,7 +2676,7 @@
       <c r="W74" s="2"/>
       <c r="X74" s="2"/>
     </row>
-    <row r="75" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" ht="19.5" customHeight="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2758,7 +2702,7 @@
       <c r="W75" s="2"/>
       <c r="X75" s="2"/>
     </row>
-    <row r="76" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" ht="19.5" customHeight="1">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2784,7 +2728,7 @@
       <c r="W76" s="2"/>
       <c r="X76" s="2"/>
     </row>
-    <row r="77" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" ht="19.5" customHeight="1">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2810,7 +2754,7 @@
       <c r="W77" s="2"/>
       <c r="X77" s="2"/>
     </row>
-    <row r="78" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" ht="19.5" customHeight="1">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2836,7 +2780,7 @@
       <c r="W78" s="2"/>
       <c r="X78" s="2"/>
     </row>
-    <row r="79" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" ht="19.5" customHeight="1">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2862,7 +2806,7 @@
       <c r="W79" s="2"/>
       <c r="X79" s="2"/>
     </row>
-    <row r="80" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" ht="19.5" customHeight="1">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2888,7 +2832,7 @@
       <c r="W80" s="2"/>
       <c r="X80" s="2"/>
     </row>
-    <row r="81" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" ht="19.5" customHeight="1">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2914,7 +2858,7 @@
       <c r="W81" s="2"/>
       <c r="X81" s="2"/>
     </row>
-    <row r="82" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" ht="19.5" customHeight="1">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2940,7 +2884,7 @@
       <c r="W82" s="2"/>
       <c r="X82" s="2"/>
     </row>
-    <row r="83" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" ht="19.5" customHeight="1">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2966,7 +2910,7 @@
       <c r="W83" s="2"/>
       <c r="X83" s="2"/>
     </row>
-    <row r="84" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" ht="19.5" customHeight="1">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2992,7 +2936,7 @@
       <c r="W84" s="2"/>
       <c r="X84" s="2"/>
     </row>
-    <row r="85" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" ht="19.5" customHeight="1">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3018,7 +2962,7 @@
       <c r="W85" s="2"/>
       <c r="X85" s="2"/>
     </row>
-    <row r="86" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" ht="19.5" customHeight="1">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3044,7 +2988,7 @@
       <c r="W86" s="2"/>
       <c r="X86" s="2"/>
     </row>
-    <row r="87" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" ht="19.5" customHeight="1">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3070,7 +3014,7 @@
       <c r="W87" s="2"/>
       <c r="X87" s="2"/>
     </row>
-    <row r="88" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" ht="19.5" customHeight="1">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3096,7 +3040,7 @@
       <c r="W88" s="2"/>
       <c r="X88" s="2"/>
     </row>
-    <row r="89" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" ht="19.5" customHeight="1">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3122,7 +3066,7 @@
       <c r="W89" s="2"/>
       <c r="X89" s="2"/>
     </row>
-    <row r="90" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" ht="19.5" customHeight="1">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3148,7 +3092,7 @@
       <c r="W90" s="2"/>
       <c r="X90" s="2"/>
     </row>
-    <row r="91" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" ht="19.5" customHeight="1">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3174,7 +3118,7 @@
       <c r="W91" s="2"/>
       <c r="X91" s="2"/>
     </row>
-    <row r="92" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" ht="19.5" customHeight="1">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3200,7 +3144,7 @@
       <c r="W92" s="2"/>
       <c r="X92" s="2"/>
     </row>
-    <row r="93" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" ht="19.5" customHeight="1">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3226,7 +3170,7 @@
       <c r="W93" s="2"/>
       <c r="X93" s="2"/>
     </row>
-    <row r="94" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" ht="19.5" customHeight="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3252,7 +3196,7 @@
       <c r="W94" s="2"/>
       <c r="X94" s="2"/>
     </row>
-    <row r="95" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" ht="19.5" customHeight="1">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3278,7 +3222,7 @@
       <c r="W95" s="2"/>
       <c r="X95" s="2"/>
     </row>
-    <row r="96" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" ht="19.5" customHeight="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3304,7 +3248,7 @@
       <c r="W96" s="2"/>
       <c r="X96" s="2"/>
     </row>
-    <row r="97" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" ht="19.5" customHeight="1">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3330,7 +3274,7 @@
       <c r="W97" s="2"/>
       <c r="X97" s="2"/>
     </row>
-    <row r="98" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" ht="19.5" customHeight="1">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3356,7 +3300,7 @@
       <c r="W98" s="2"/>
       <c r="X98" s="2"/>
     </row>
-    <row r="99" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" ht="19.5" customHeight="1">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -3382,7 +3326,7 @@
       <c r="W99" s="2"/>
       <c r="X99" s="2"/>
     </row>
-    <row r="100" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" ht="19.5" customHeight="1">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3408,7 +3352,7 @@
       <c r="W100" s="2"/>
       <c r="X100" s="2"/>
     </row>
-    <row r="101" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" ht="19.5" customHeight="1">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3434,7 +3378,7 @@
       <c r="W101" s="2"/>
       <c r="X101" s="2"/>
     </row>
-    <row r="102" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" ht="19.5" customHeight="1">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -3460,7 +3404,7 @@
       <c r="W102" s="2"/>
       <c r="X102" s="2"/>
     </row>
-    <row r="103" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" ht="19.5" customHeight="1">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -3486,7 +3430,7 @@
       <c r="W103" s="2"/>
       <c r="X103" s="2"/>
     </row>
-    <row r="104" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" ht="19.5" customHeight="1">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3512,7 +3456,7 @@
       <c r="W104" s="2"/>
       <c r="X104" s="2"/>
     </row>
-    <row r="105" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" ht="19.5" customHeight="1">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3538,7 +3482,7 @@
       <c r="W105" s="2"/>
       <c r="X105" s="2"/>
     </row>
-    <row r="106" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" ht="19.5" customHeight="1">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3564,7 +3508,7 @@
       <c r="W106" s="2"/>
       <c r="X106" s="2"/>
     </row>
-    <row r="107" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" ht="19.5" customHeight="1">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -3590,7 +3534,7 @@
       <c r="W107" s="2"/>
       <c r="X107" s="2"/>
     </row>
-    <row r="108" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" ht="19.5" customHeight="1">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -3616,7 +3560,7 @@
       <c r="W108" s="2"/>
       <c r="X108" s="2"/>
     </row>
-    <row r="109" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" ht="19.5" customHeight="1">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -3642,7 +3586,7 @@
       <c r="W109" s="2"/>
       <c r="X109" s="2"/>
     </row>
-    <row r="110" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" ht="19.5" customHeight="1">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -3668,7 +3612,7 @@
       <c r="W110" s="2"/>
       <c r="X110" s="2"/>
     </row>
-    <row r="111" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" ht="19.5" customHeight="1">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -3694,7 +3638,7 @@
       <c r="W111" s="2"/>
       <c r="X111" s="2"/>
     </row>
-    <row r="112" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" ht="19.5" customHeight="1">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -3720,7 +3664,7 @@
       <c r="W112" s="2"/>
       <c r="X112" s="2"/>
     </row>
-    <row r="113" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" ht="19.5" customHeight="1">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -3746,7 +3690,7 @@
       <c r="W113" s="2"/>
       <c r="X113" s="2"/>
     </row>
-    <row r="114" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" ht="19.5" customHeight="1">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -3772,7 +3716,7 @@
       <c r="W114" s="2"/>
       <c r="X114" s="2"/>
     </row>
-    <row r="115" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" ht="19.5" customHeight="1">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -3798,7 +3742,7 @@
       <c r="W115" s="2"/>
       <c r="X115" s="2"/>
     </row>
-    <row r="116" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" ht="19.5" customHeight="1">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -3824,7 +3768,7 @@
       <c r="W116" s="2"/>
       <c r="X116" s="2"/>
     </row>
-    <row r="117" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" ht="19.5" customHeight="1">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -3850,7 +3794,7 @@
       <c r="W117" s="2"/>
       <c r="X117" s="2"/>
     </row>
-    <row r="118" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" ht="19.5" customHeight="1">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -3876,7 +3820,7 @@
       <c r="W118" s="2"/>
       <c r="X118" s="2"/>
     </row>
-    <row r="119" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" ht="19.5" customHeight="1">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -3902,7 +3846,7 @@
       <c r="W119" s="2"/>
       <c r="X119" s="2"/>
     </row>
-    <row r="120" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" ht="19.5" customHeight="1">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -3928,7 +3872,7 @@
       <c r="W120" s="2"/>
       <c r="X120" s="2"/>
     </row>
-    <row r="121" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" ht="19.5" customHeight="1">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -3954,7 +3898,7 @@
       <c r="W121" s="2"/>
       <c r="X121" s="2"/>
     </row>
-    <row r="122" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" ht="19.5" customHeight="1">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -3980,7 +3924,7 @@
       <c r="W122" s="2"/>
       <c r="X122" s="2"/>
     </row>
-    <row r="123" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" ht="19.5" customHeight="1">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -4006,7 +3950,7 @@
       <c r="W123" s="2"/>
       <c r="X123" s="2"/>
     </row>
-    <row r="124" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" ht="19.5" customHeight="1">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -4032,7 +3976,7 @@
       <c r="W124" s="2"/>
       <c r="X124" s="2"/>
     </row>
-    <row r="125" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" ht="19.5" customHeight="1">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -4058,7 +4002,7 @@
       <c r="W125" s="2"/>
       <c r="X125" s="2"/>
     </row>
-    <row r="126" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" ht="19.5" customHeight="1">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -4084,7 +4028,7 @@
       <c r="W126" s="2"/>
       <c r="X126" s="2"/>
     </row>
-    <row r="127" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" ht="19.5" customHeight="1">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4110,7 +4054,7 @@
       <c r="W127" s="2"/>
       <c r="X127" s="2"/>
     </row>
-    <row r="128" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" ht="19.5" customHeight="1">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4136,7 +4080,7 @@
       <c r="W128" s="2"/>
       <c r="X128" s="2"/>
     </row>
-    <row r="129" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" ht="19.5" customHeight="1">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -4162,7 +4106,7 @@
       <c r="W129" s="2"/>
       <c r="X129" s="2"/>
     </row>
-    <row r="130" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" ht="19.5" customHeight="1">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -4188,7 +4132,7 @@
       <c r="W130" s="2"/>
       <c r="X130" s="2"/>
     </row>
-    <row r="131" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" ht="19.5" customHeight="1">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -4214,7 +4158,7 @@
       <c r="W131" s="2"/>
       <c r="X131" s="2"/>
     </row>
-    <row r="132" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" ht="19.5" customHeight="1">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -4240,7 +4184,7 @@
       <c r="W132" s="2"/>
       <c r="X132" s="2"/>
     </row>
-    <row r="133" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" ht="19.5" customHeight="1">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -4266,7 +4210,7 @@
       <c r="W133" s="2"/>
       <c r="X133" s="2"/>
     </row>
-    <row r="134" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" ht="19.5" customHeight="1">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -4292,7 +4236,7 @@
       <c r="W134" s="2"/>
       <c r="X134" s="2"/>
     </row>
-    <row r="135" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" ht="19.5" customHeight="1">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -4318,7 +4262,7 @@
       <c r="W135" s="2"/>
       <c r="X135" s="2"/>
     </row>
-    <row r="136" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" ht="19.5" customHeight="1">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -4344,7 +4288,7 @@
       <c r="W136" s="2"/>
       <c r="X136" s="2"/>
     </row>
-    <row r="137" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" ht="19.5" customHeight="1">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -4370,7 +4314,7 @@
       <c r="W137" s="2"/>
       <c r="X137" s="2"/>
     </row>
-    <row r="138" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" ht="19.5" customHeight="1">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -4396,7 +4340,7 @@
       <c r="W138" s="2"/>
       <c r="X138" s="2"/>
     </row>
-    <row r="139" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" ht="19.5" customHeight="1">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -4422,7 +4366,7 @@
       <c r="W139" s="2"/>
       <c r="X139" s="2"/>
     </row>
-    <row r="140" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" ht="19.5" customHeight="1">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -4448,7 +4392,7 @@
       <c r="W140" s="2"/>
       <c r="X140" s="2"/>
     </row>
-    <row r="141" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" ht="19.5" customHeight="1">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -4474,7 +4418,7 @@
       <c r="W141" s="2"/>
       <c r="X141" s="2"/>
     </row>
-    <row r="142" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" ht="19.5" customHeight="1">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -4500,7 +4444,7 @@
       <c r="W142" s="2"/>
       <c r="X142" s="2"/>
     </row>
-    <row r="143" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" ht="19.5" customHeight="1">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -4526,7 +4470,7 @@
       <c r="W143" s="2"/>
       <c r="X143" s="2"/>
     </row>
-    <row r="144" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" ht="19.5" customHeight="1">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -4552,7 +4496,7 @@
       <c r="W144" s="2"/>
       <c r="X144" s="2"/>
     </row>
-    <row r="145" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" ht="19.5" customHeight="1">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -4578,7 +4522,7 @@
       <c r="W145" s="2"/>
       <c r="X145" s="2"/>
     </row>
-    <row r="146" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" ht="19.5" customHeight="1">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -4604,7 +4548,7 @@
       <c r="W146" s="2"/>
       <c r="X146" s="2"/>
     </row>
-    <row r="147" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" ht="19.5" customHeight="1">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -4630,7 +4574,7 @@
       <c r="W147" s="2"/>
       <c r="X147" s="2"/>
     </row>
-    <row r="148" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" ht="19.5" customHeight="1">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -4656,7 +4600,7 @@
       <c r="W148" s="2"/>
       <c r="X148" s="2"/>
     </row>
-    <row r="149" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" ht="19.5" customHeight="1">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -4682,7 +4626,7 @@
       <c r="W149" s="2"/>
       <c r="X149" s="2"/>
     </row>
-    <row r="150" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" ht="19.5" customHeight="1">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -4708,7 +4652,7 @@
       <c r="W150" s="2"/>
       <c r="X150" s="2"/>
     </row>
-    <row r="151" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" ht="19.5" customHeight="1">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -4734,7 +4678,7 @@
       <c r="W151" s="2"/>
       <c r="X151" s="2"/>
     </row>
-    <row r="152" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" ht="19.5" customHeight="1">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -4760,7 +4704,7 @@
       <c r="W152" s="2"/>
       <c r="X152" s="2"/>
     </row>
-    <row r="153" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" ht="19.5" customHeight="1">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -4786,7 +4730,7 @@
       <c r="W153" s="2"/>
       <c r="X153" s="2"/>
     </row>
-    <row r="154" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" ht="19.5" customHeight="1">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -4812,7 +4756,7 @@
       <c r="W154" s="2"/>
       <c r="X154" s="2"/>
     </row>
-    <row r="155" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" ht="19.5" customHeight="1">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -4838,7 +4782,7 @@
       <c r="W155" s="2"/>
       <c r="X155" s="2"/>
     </row>
-    <row r="156" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" ht="19.5" customHeight="1">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -4864,7 +4808,7 @@
       <c r="W156" s="2"/>
       <c r="X156" s="2"/>
     </row>
-    <row r="157" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" ht="19.5" customHeight="1">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -4890,7 +4834,7 @@
       <c r="W157" s="2"/>
       <c r="X157" s="2"/>
     </row>
-    <row r="158" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" ht="19.5" customHeight="1">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -4916,7 +4860,7 @@
       <c r="W158" s="2"/>
       <c r="X158" s="2"/>
     </row>
-    <row r="159" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" ht="19.5" customHeight="1">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -4942,7 +4886,7 @@
       <c r="W159" s="2"/>
       <c r="X159" s="2"/>
     </row>
-    <row r="160" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" ht="19.5" customHeight="1">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -4968,7 +4912,7 @@
       <c r="W160" s="2"/>
       <c r="X160" s="2"/>
     </row>
-    <row r="161" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" ht="19.5" customHeight="1">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -4994,7 +4938,7 @@
       <c r="W161" s="2"/>
       <c r="X161" s="2"/>
     </row>
-    <row r="162" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" ht="19.5" customHeight="1">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -5020,7 +4964,7 @@
       <c r="W162" s="2"/>
       <c r="X162" s="2"/>
     </row>
-    <row r="163" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" ht="19.5" customHeight="1">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -5046,7 +4990,7 @@
       <c r="W163" s="2"/>
       <c r="X163" s="2"/>
     </row>
-    <row r="164" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" ht="19.5" customHeight="1">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -5072,7 +5016,7 @@
       <c r="W164" s="2"/>
       <c r="X164" s="2"/>
     </row>
-    <row r="165" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" ht="19.5" customHeight="1">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -5098,7 +5042,7 @@
       <c r="W165" s="2"/>
       <c r="X165" s="2"/>
     </row>
-    <row r="166" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" ht="19.5" customHeight="1">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -5124,7 +5068,7 @@
       <c r="W166" s="2"/>
       <c r="X166" s="2"/>
     </row>
-    <row r="167" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" ht="19.5" customHeight="1">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -5150,7 +5094,7 @@
       <c r="W167" s="2"/>
       <c r="X167" s="2"/>
     </row>
-    <row r="168" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" ht="19.5" customHeight="1">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -5176,7 +5120,7 @@
       <c r="W168" s="2"/>
       <c r="X168" s="2"/>
     </row>
-    <row r="169" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" ht="19.5" customHeight="1">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -5202,7 +5146,7 @@
       <c r="W169" s="2"/>
       <c r="X169" s="2"/>
     </row>
-    <row r="170" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" ht="19.5" customHeight="1">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -5228,7 +5172,7 @@
       <c r="W170" s="2"/>
       <c r="X170" s="2"/>
     </row>
-    <row r="171" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" ht="19.5" customHeight="1">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -5254,7 +5198,7 @@
       <c r="W171" s="2"/>
       <c r="X171" s="2"/>
     </row>
-    <row r="172" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" ht="19.5" customHeight="1">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -5280,7 +5224,7 @@
       <c r="W172" s="2"/>
       <c r="X172" s="2"/>
     </row>
-    <row r="173" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" ht="19.5" customHeight="1">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -5306,7 +5250,7 @@
       <c r="W173" s="2"/>
       <c r="X173" s="2"/>
     </row>
-    <row r="174" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" ht="19.5" customHeight="1">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -5332,7 +5276,7 @@
       <c r="W174" s="2"/>
       <c r="X174" s="2"/>
     </row>
-    <row r="175" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" ht="19.5" customHeight="1">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -5358,7 +5302,7 @@
       <c r="W175" s="2"/>
       <c r="X175" s="2"/>
     </row>
-    <row r="176" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" ht="19.5" customHeight="1">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -5384,7 +5328,7 @@
       <c r="W176" s="2"/>
       <c r="X176" s="2"/>
     </row>
-    <row r="177" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" ht="19.5" customHeight="1">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -5410,7 +5354,7 @@
       <c r="W177" s="2"/>
       <c r="X177" s="2"/>
     </row>
-    <row r="178" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" ht="19.5" customHeight="1">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -5436,7 +5380,7 @@
       <c r="W178" s="2"/>
       <c r="X178" s="2"/>
     </row>
-    <row r="179" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" ht="19.5" customHeight="1">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -5462,7 +5406,7 @@
       <c r="W179" s="2"/>
       <c r="X179" s="2"/>
     </row>
-    <row r="180" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" ht="19.5" customHeight="1">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -5488,7 +5432,7 @@
       <c r="W180" s="2"/>
       <c r="X180" s="2"/>
     </row>
-    <row r="181" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" ht="19.5" customHeight="1">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -5514,7 +5458,7 @@
       <c r="W181" s="2"/>
       <c r="X181" s="2"/>
     </row>
-    <row r="182" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" ht="19.5" customHeight="1">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -5540,7 +5484,7 @@
       <c r="W182" s="2"/>
       <c r="X182" s="2"/>
     </row>
-    <row r="183" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" ht="19.5" customHeight="1">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -5566,7 +5510,7 @@
       <c r="W183" s="2"/>
       <c r="X183" s="2"/>
     </row>
-    <row r="184" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" ht="19.5" customHeight="1">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -5592,7 +5536,7 @@
       <c r="W184" s="2"/>
       <c r="X184" s="2"/>
     </row>
-    <row r="185" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" ht="19.5" customHeight="1">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -5618,7 +5562,7 @@
       <c r="W185" s="2"/>
       <c r="X185" s="2"/>
     </row>
-    <row r="186" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" ht="19.5" customHeight="1">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -5644,7 +5588,7 @@
       <c r="W186" s="2"/>
       <c r="X186" s="2"/>
     </row>
-    <row r="187" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" ht="19.5" customHeight="1">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -5670,7 +5614,7 @@
       <c r="W187" s="2"/>
       <c r="X187" s="2"/>
     </row>
-    <row r="188" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" ht="19.5" customHeight="1">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -5696,7 +5640,7 @@
       <c r="W188" s="2"/>
       <c r="X188" s="2"/>
     </row>
-    <row r="189" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" ht="19.5" customHeight="1">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -5722,7 +5666,7 @@
       <c r="W189" s="2"/>
       <c r="X189" s="2"/>
     </row>
-    <row r="190" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" ht="19.5" customHeight="1">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -5748,7 +5692,7 @@
       <c r="W190" s="2"/>
       <c r="X190" s="2"/>
     </row>
-    <row r="191" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" ht="19.5" customHeight="1">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -5774,7 +5718,7 @@
       <c r="W191" s="2"/>
       <c r="X191" s="2"/>
     </row>
-    <row r="192" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" ht="19.5" customHeight="1">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -5800,7 +5744,7 @@
       <c r="W192" s="2"/>
       <c r="X192" s="2"/>
     </row>
-    <row r="193" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" ht="19.5" customHeight="1">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -5826,7 +5770,7 @@
       <c r="W193" s="2"/>
       <c r="X193" s="2"/>
     </row>
-    <row r="194" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" ht="19.5" customHeight="1">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -5852,7 +5796,7 @@
       <c r="W194" s="2"/>
       <c r="X194" s="2"/>
     </row>
-    <row r="195" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" ht="19.5" customHeight="1">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -5878,7 +5822,7 @@
       <c r="W195" s="2"/>
       <c r="X195" s="2"/>
     </row>
-    <row r="196" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" ht="19.5" customHeight="1">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -5904,7 +5848,7 @@
       <c r="W196" s="2"/>
       <c r="X196" s="2"/>
     </row>
-    <row r="197" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" ht="19.5" customHeight="1">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -5930,7 +5874,7 @@
       <c r="W197" s="2"/>
       <c r="X197" s="2"/>
     </row>
-    <row r="198" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" ht="19.5" customHeight="1">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -5956,7 +5900,7 @@
       <c r="W198" s="2"/>
       <c r="X198" s="2"/>
     </row>
-    <row r="199" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" ht="19.5" customHeight="1">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -5982,7 +5926,7 @@
       <c r="W199" s="2"/>
       <c r="X199" s="2"/>
     </row>
-    <row r="200" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" ht="19.5" customHeight="1">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -6008,7 +5952,7 @@
       <c r="W200" s="2"/>
       <c r="X200" s="2"/>
     </row>
-    <row r="201" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" ht="19.5" customHeight="1">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -6034,7 +5978,7 @@
       <c r="W201" s="2"/>
       <c r="X201" s="2"/>
     </row>
-    <row r="202" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" ht="19.5" customHeight="1">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -6060,7 +6004,7 @@
       <c r="W202" s="2"/>
       <c r="X202" s="2"/>
     </row>
-    <row r="203" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" ht="19.5" customHeight="1">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -6086,7 +6030,7 @@
       <c r="W203" s="2"/>
       <c r="X203" s="2"/>
     </row>
-    <row r="204" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" ht="19.5" customHeight="1">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -6112,7 +6056,7 @@
       <c r="W204" s="2"/>
       <c r="X204" s="2"/>
     </row>
-    <row r="205" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" ht="19.5" customHeight="1">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -6138,7 +6082,7 @@
       <c r="W205" s="2"/>
       <c r="X205" s="2"/>
     </row>
-    <row r="206" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" ht="19.5" customHeight="1">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -6164,7 +6108,7 @@
       <c r="W206" s="2"/>
       <c r="X206" s="2"/>
     </row>
-    <row r="207" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" ht="19.5" customHeight="1">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -6190,7 +6134,7 @@
       <c r="W207" s="2"/>
       <c r="X207" s="2"/>
     </row>
-    <row r="208" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" ht="19.5" customHeight="1">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -6216,7 +6160,7 @@
       <c r="W208" s="2"/>
       <c r="X208" s="2"/>
     </row>
-    <row r="209" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" ht="19.5" customHeight="1">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -6242,7 +6186,7 @@
       <c r="W209" s="2"/>
       <c r="X209" s="2"/>
     </row>
-    <row r="210" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" ht="19.5" customHeight="1">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -6268,7 +6212,7 @@
       <c r="W210" s="2"/>
       <c r="X210" s="2"/>
     </row>
-    <row r="211" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" ht="19.5" customHeight="1">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -6294,7 +6238,7 @@
       <c r="W211" s="2"/>
       <c r="X211" s="2"/>
     </row>
-    <row r="212" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" ht="19.5" customHeight="1">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -6320,7 +6264,7 @@
       <c r="W212" s="2"/>
       <c r="X212" s="2"/>
     </row>
-    <row r="213" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" ht="19.5" customHeight="1">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -6346,7 +6290,7 @@
       <c r="W213" s="2"/>
       <c r="X213" s="2"/>
     </row>
-    <row r="214" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" ht="19.5" customHeight="1">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -6372,7 +6316,7 @@
       <c r="W214" s="2"/>
       <c r="X214" s="2"/>
     </row>
-    <row r="215" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" ht="19.5" customHeight="1">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -6398,7 +6342,7 @@
       <c r="W215" s="2"/>
       <c r="X215" s="2"/>
     </row>
-    <row r="216" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" ht="19.5" customHeight="1">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -6424,7 +6368,7 @@
       <c r="W216" s="2"/>
       <c r="X216" s="2"/>
     </row>
-    <row r="217" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" ht="19.5" customHeight="1">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -6450,7 +6394,7 @@
       <c r="W217" s="2"/>
       <c r="X217" s="2"/>
     </row>
-    <row r="218" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" ht="19.5" customHeight="1">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -6476,7 +6420,7 @@
       <c r="W218" s="2"/>
       <c r="X218" s="2"/>
     </row>
-    <row r="219" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" ht="19.5" customHeight="1">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -6502,7 +6446,7 @@
       <c r="W219" s="2"/>
       <c r="X219" s="2"/>
     </row>
-    <row r="220" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" ht="19.5" customHeight="1">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -6528,7 +6472,7 @@
       <c r="W220" s="2"/>
       <c r="X220" s="2"/>
     </row>
-    <row r="221" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" ht="19.5" customHeight="1">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -6554,7 +6498,7 @@
       <c r="W221" s="2"/>
       <c r="X221" s="2"/>
     </row>
-    <row r="222" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" ht="19.5" customHeight="1">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -6580,7 +6524,7 @@
       <c r="W222" s="2"/>
       <c r="X222" s="2"/>
     </row>
-    <row r="223" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" ht="19.5" customHeight="1">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -6606,7 +6550,7 @@
       <c r="W223" s="2"/>
       <c r="X223" s="2"/>
     </row>
-    <row r="224" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" ht="19.5" customHeight="1">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -6632,7 +6576,7 @@
       <c r="W224" s="2"/>
       <c r="X224" s="2"/>
     </row>
-    <row r="225" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" ht="19.5" customHeight="1">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -6658,7 +6602,7 @@
       <c r="W225" s="2"/>
       <c r="X225" s="2"/>
     </row>
-    <row r="226" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" ht="19.5" customHeight="1">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -6684,7 +6628,7 @@
       <c r="W226" s="2"/>
       <c r="X226" s="2"/>
     </row>
-    <row r="227" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" ht="19.5" customHeight="1">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -6710,7 +6654,7 @@
       <c r="W227" s="2"/>
       <c r="X227" s="2"/>
     </row>
-    <row r="228" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" ht="19.5" customHeight="1">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -6736,7 +6680,7 @@
       <c r="W228" s="2"/>
       <c r="X228" s="2"/>
     </row>
-    <row r="229" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" ht="19.5" customHeight="1">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -6762,7 +6706,7 @@
       <c r="W229" s="2"/>
       <c r="X229" s="2"/>
     </row>
-    <row r="230" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" ht="19.5" customHeight="1">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -6788,7 +6732,7 @@
       <c r="W230" s="2"/>
       <c r="X230" s="2"/>
     </row>
-    <row r="231" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" ht="19.5" customHeight="1">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -6814,7 +6758,7 @@
       <c r="W231" s="2"/>
       <c r="X231" s="2"/>
     </row>
-    <row r="232" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" ht="19.5" customHeight="1">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -6840,818 +6784,781 @@
       <c r="W232" s="2"/>
       <c r="X232" s="2"/>
     </row>
-    <row r="233" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="2"/>
-      <c r="B233" s="2"/>
-      <c r="C233" s="2"/>
-      <c r="D233" s="2"/>
-      <c r="E233" s="2"/>
-      <c r="F233" s="2"/>
-      <c r="G233" s="2"/>
-      <c r="H233" s="2"/>
-      <c r="I233" s="2"/>
-      <c r="J233" s="2"/>
-      <c r="K233" s="2"/>
-      <c r="L233" s="2"/>
-      <c r="M233" s="2"/>
-      <c r="N233" s="2"/>
-      <c r="O233" s="2"/>
-      <c r="P233" s="2"/>
-      <c r="Q233" s="2"/>
-      <c r="R233" s="2"/>
-      <c r="S233" s="2"/>
-      <c r="T233" s="2"/>
-      <c r="U233" s="2"/>
-      <c r="V233" s="2"/>
-      <c r="W233" s="2"/>
-      <c r="X233" s="2"/>
-    </row>
-    <row r="234" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:A33"/>
   </mergeCells>
-  <phoneticPr fontId="5"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>